--- a/biology/Zoologie/Argentinidae/Argentinidae.xlsx
+++ b/biology/Zoologie/Argentinidae/Argentinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les argentines (Argentinidae) sont une famille de poissons téléostéens de l'ordre des Osmeriformes.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon FishBase
-genre Argentina Linnaeus, 1758
+          <t>Selon FishBase</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>genre Argentina Linnaeus, 1758
 Argentina aliceae  Cohen &amp; Atsaides, 1969
 Argentina australiae  Cohen, 1958
 Argentina brucei  Cohen &amp; Atsaides, 1969
@@ -540,9 +557,43 @@
 Glossanodon pseudolineatus  Kobyliansky, 1998
 Glossanodon pygmaeus  Cohen, 1958
 Glossanodon semifasciatus  (Kishinouye, 1904)
-Glossanodon struhsakeri  Cohen, 1970
-Selon WRMS
-genre Argentina Linnaeus, 1758
+Glossanodon struhsakeri  Cohen, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Argentinidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argentinidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon WRMS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>genre Argentina Linnaeus, 1758
 genre Glossanodon Guichenot, 1867</t>
         </is>
       </c>
